--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_AREPD_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_AREPD_Lineal_Estacionario_ARMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.07346182488421793</v>
+        <v>0.07953732872513224</v>
       </c>
       <c r="D2">
-        <v>0.9414473716158596</v>
+        <v>0.937324309546592</v>
       </c>
       <c r="E2">
         <v>0.9529395950216518</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.1121958279918613</v>
+        <v>-0.09503425902082827</v>
       </c>
       <c r="D3">
-        <v>0.9106815484232356</v>
+        <v>0.9251479219192009</v>
       </c>
       <c r="E3">
         <v>0.9529395950216518</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.2174115161592775</v>
+        <v>0.2382568997674029</v>
       </c>
       <c r="D4">
-        <v>0.8279140735443025</v>
+        <v>0.8138870158302365</v>
       </c>
       <c r="E4">
         <v>0.9529395950216518</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.6594754915751909</v>
+        <v>0.8747107334703133</v>
       </c>
       <c r="D5">
-        <v>0.5096809202722474</v>
+        <v>0.391180787095105</v>
       </c>
       <c r="E5">
         <v>0.9529395950216518</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.1899217687387891</v>
+        <v>-0.1795906341622638</v>
       </c>
       <c r="D6">
-        <v>0.8493933915940257</v>
+        <v>0.8591177847072888</v>
       </c>
       <c r="E6">
         <v>0.9483882509106621</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.1180002192687658</v>
+        <v>0.144578313101597</v>
       </c>
       <c r="D7">
-        <v>0.9060815985119683</v>
+        <v>0.886360131452109</v>
       </c>
       <c r="E7">
         <v>0.9483882509106621</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0.604901272461418</v>
+        <v>0.8476746609530327</v>
       </c>
       <c r="D8">
-        <v>0.5453263376637767</v>
+        <v>0.4057472884788678</v>
       </c>
       <c r="E8">
         <v>0.9483882509106621</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.3366544608819345</v>
+        <v>0.4119945905521116</v>
       </c>
       <c r="D9">
-        <v>0.7364194683738705</v>
+        <v>0.6843300700265322</v>
       </c>
       <c r="E9">
         <v>0.9612087149156978</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.7778186598708415</v>
+        <v>0.6362538055528635</v>
       </c>
       <c r="D10">
-        <v>0.4367855119325488</v>
+        <v>0.5311754207076418</v>
       </c>
       <c r="E10">
         <v>0.9612087149156978</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.5176745110113961</v>
+        <v>0.5464115406181709</v>
       </c>
       <c r="D11">
-        <v>0.6047535823954933</v>
+        <v>0.5902822695379255</v>
       </c>
       <c r="E11">
         <v>0.9407275128440898</v>
